--- a/WithOutImageQuestion 2.xlsx
+++ b/WithOutImageQuestion 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="216">
   <si>
     <t>Level</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Answer</t>
   </si>
   <si>
+    <t>Solution</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
@@ -584,6 +587,81 @@
   </si>
   <si>
     <t xml:space="preserve"> Conceptual scheme </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sol. </t>
+  </si>
+  <si>
+    <t>Sol.</t>
+  </si>
+  <si>
+    <t>o-dihydroxy benzene or catechol.</t>
+  </si>
+  <si>
+    <t>Sol. Glycols are dihydric alcohols (having two hydroxyl groups). Ethylene glycol is the first member of this series.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Sol. Hydration of alkenes</t>
+  </si>
+  <si>
+    <t>Fermentation of sugars:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	</t>
+  </si>
+  <si>
+    <t>Sol. .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we take moistthen alcohol is formed </t>
+  </si>
+  <si>
+    <t>Sol.andattacks only carbonyl group and reduce it into alcohol group. They do not attack on double bond.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since on oxidation same no. of carbon atoms are obtained in as therefore alcohol is primary </t>
+  </si>
+  <si>
+    <t>Increasing acidic character</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> reacts immediately </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> reacts after 5 min.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> reacts only on heating.</t>
+  </si>
+  <si>
+    <t>Sol. Tertiary alcohol readily reacts with halogen acid</t>
+  </si>
+  <si>
+    <t>Presence of 3 alkyl group increases electron density on carbon atom. Hencegroup is easily removed. After the removal ofgroupcarbonium ion is formed which is most stable</t>
+  </si>
+  <si>
+    <t>Sol. o-Nitrophenol has intramolecular H-bonding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sol. Secondary alcohol on dehydrogenation gives acetone </t>
+  </si>
+  <si>
+    <t>94 grams of phenol reacts with 480 gms. of .</t>
+  </si>
+  <si>
+    <t>2 gm. of phenol—gms.</t>
+  </si>
+  <si>
+    <t>Sol. A mixture of glyceryl trinitrate and glyceryl dinitrate when absorbed on kieselgurh is called dynamite.</t>
+  </si>
+  <si>
+    <t>Sol. Groundnut oil.</t>
   </si>
 </sst>
 </file>
@@ -915,13 +993,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -946,1728 +1024,1995 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>156</v>
+      </c>
+      <c r="H3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H5">
+        <v>158</v>
+      </c>
+      <c r="H5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" t="s">
+        <v>193</v>
+      </c>
+      <c r="I6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" t="s">
+        <v>195</v>
+      </c>
+      <c r="I9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" t="s">
-        <v>158</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" t="s">
+        <v>196</v>
+      </c>
+      <c r="I11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" t="s">
+        <v>197</v>
+      </c>
+      <c r="I12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
         <v>61</v>
       </c>
-      <c r="E7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" t="s">
-        <v>160</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" t="s">
-        <v>161</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" t="s">
-        <v>162</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
-        <v>163</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="H13" t="s">
+        <v>198</v>
+      </c>
+      <c r="I13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
-      </c>
-      <c r="H15">
+        <v>166</v>
+      </c>
+      <c r="H15" t="s">
+        <v>199</v>
+      </c>
+      <c r="I15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" t="s">
+        <v>191</v>
+      </c>
+      <c r="I17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>169</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" t="s">
+        <v>170</v>
+      </c>
+      <c r="H19" t="s">
+        <v>191</v>
+      </c>
+      <c r="I19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" t="s">
         <v>166</v>
-      </c>
-      <c r="H16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F17" t="s">
-        <v>167</v>
-      </c>
-      <c r="H17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" t="s">
-        <v>168</v>
-      </c>
-      <c r="H18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" t="s">
-        <v>133</v>
-      </c>
-      <c r="F20" t="s">
-        <v>165</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" t="s">
+        <v>171</v>
+      </c>
+      <c r="H21" t="s">
+        <v>191</v>
+      </c>
+      <c r="I21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
         <v>67</v>
       </c>
-      <c r="D21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" t="s">
-        <v>170</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" t="s">
-        <v>66</v>
-      </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H23">
+        <v>173</v>
+      </c>
+      <c r="H23" t="s">
+        <v>191</v>
+      </c>
+      <c r="I23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" t="s">
+        <v>174</v>
+      </c>
+      <c r="H24" t="s">
+        <v>200</v>
+      </c>
+      <c r="I24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" t="s">
+        <v>140</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" t="s">
+        <v>175</v>
+      </c>
+      <c r="H26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H28" t="s">
+        <v>201</v>
+      </c>
+      <c r="I28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" t="s">
+        <v>177</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" t="s">
+        <v>178</v>
+      </c>
+      <c r="H30" t="s">
+        <v>191</v>
+      </c>
+      <c r="I30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" t="s">
+        <v>179</v>
+      </c>
+      <c r="H31">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F24" t="s">
-        <v>173</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" t="s">
-        <v>138</v>
-      </c>
-      <c r="F25" t="s">
-        <v>139</v>
-      </c>
-      <c r="H25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="I31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" t="s">
+        <v>180</v>
+      </c>
+      <c r="H32" t="s">
+        <v>191</v>
+      </c>
+      <c r="I32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" t="s">
+        <v>181</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" t="s">
         <v>72</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E34" t="s">
+        <v>148</v>
+      </c>
+      <c r="F34" t="s">
+        <v>182</v>
+      </c>
+      <c r="H34" t="s">
+        <v>191</v>
+      </c>
+      <c r="I34" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" t="s">
+        <v>183</v>
+      </c>
+      <c r="H35" t="s">
+        <v>202</v>
+      </c>
+      <c r="I35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
         <v>82</v>
       </c>
-      <c r="E26" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" t="s">
-        <v>174</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" t="s">
-        <v>140</v>
-      </c>
-      <c r="F27" t="s">
-        <v>108</v>
-      </c>
-      <c r="H27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" t="s">
-        <v>141</v>
-      </c>
-      <c r="F28" t="s">
-        <v>175</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" t="s">
-        <v>108</v>
-      </c>
-      <c r="E29" t="s">
-        <v>142</v>
-      </c>
-      <c r="F29" t="s">
-        <v>176</v>
-      </c>
-      <c r="H29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" t="s">
-        <v>143</v>
-      </c>
-      <c r="F30" t="s">
-        <v>177</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" t="s">
-        <v>144</v>
-      </c>
-      <c r="F31" t="s">
-        <v>178</v>
-      </c>
-      <c r="H31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" t="s">
-        <v>145</v>
-      </c>
-      <c r="F32" t="s">
-        <v>179</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" t="s">
-        <v>112</v>
-      </c>
-      <c r="E33" t="s">
-        <v>146</v>
-      </c>
-      <c r="F33" t="s">
-        <v>180</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" t="s">
-        <v>147</v>
-      </c>
-      <c r="F34" t="s">
-        <v>181</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" t="s">
-        <v>116</v>
-      </c>
-      <c r="F35" t="s">
-        <v>182</v>
-      </c>
-      <c r="H35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" t="s">
-        <v>81</v>
-      </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F37" t="s">
-        <v>184</v>
-      </c>
-      <c r="H37">
+        <v>185</v>
+      </c>
+      <c r="H37" t="s">
+        <v>192</v>
+      </c>
+      <c r="I37" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" t="s">
+        <v>186</v>
+      </c>
+      <c r="H38" t="s">
+        <v>203</v>
+      </c>
+      <c r="I38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" t="s">
+        <v>187</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" t="s">
+        <v>153</v>
+      </c>
+      <c r="F40" t="s">
+        <v>188</v>
+      </c>
+      <c r="H40" t="s">
+        <v>191</v>
+      </c>
+      <c r="I40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" t="s">
+        <v>189</v>
+      </c>
+      <c r="H41">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38" t="s">
-        <v>150</v>
-      </c>
-      <c r="F38" t="s">
-        <v>185</v>
-      </c>
-      <c r="H38">
+      <c r="I41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" t="s">
+        <v>191</v>
+      </c>
+      <c r="I42" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" t="s">
+        <v>204</v>
+      </c>
+      <c r="I43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" t="s">
+        <v>205</v>
+      </c>
+      <c r="I44" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" t="s">
+        <v>206</v>
+      </c>
+      <c r="I45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" t="s">
-        <v>151</v>
-      </c>
-      <c r="F39" t="s">
-        <v>186</v>
-      </c>
-      <c r="H39">
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" t="s">
+        <v>191</v>
+      </c>
+      <c r="I47" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" t="s">
+        <v>207</v>
+      </c>
+      <c r="I49" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" t="s">
+        <v>208</v>
+      </c>
+      <c r="I50" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40" t="s">
-        <v>152</v>
-      </c>
-      <c r="F40" t="s">
-        <v>187</v>
-      </c>
-      <c r="H40">
+      <c r="I51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" t="s">
+        <v>209</v>
+      </c>
+      <c r="I52" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" t="s">
+        <v>192</v>
+      </c>
+      <c r="I54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" t="s">
+        <v>210</v>
+      </c>
+      <c r="I55" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" t="s">
+        <v>211</v>
+      </c>
+      <c r="I57" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" t="s">
+        <v>191</v>
+      </c>
+      <c r="I59" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" t="s">
+        <v>212</v>
+      </c>
+      <c r="I60" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" t="s">
+        <v>213</v>
+      </c>
+      <c r="I61" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" t="s">
-        <v>118</v>
-      </c>
-      <c r="E41" t="s">
-        <v>153</v>
-      </c>
-      <c r="F41" t="s">
-        <v>188</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="I62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
+        <v>9</v>
+      </c>
+      <c r="H63" t="s">
+        <v>214</v>
+      </c>
+      <c r="I63" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
+        <v>9</v>
+      </c>
+      <c r="H64">
+        <v>3</v>
+      </c>
+      <c r="I64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
+        <v>9</v>
+      </c>
+      <c r="H65" t="s">
+        <v>215</v>
+      </c>
+      <c r="I65" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
